--- a/analysis/cfg-case-study/result-summary/power-analysis/power_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/power-analysis/power_1500_3000_ft.xlsx
@@ -716,7 +716,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -725,9 +725,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -981,10 +978,10 @@
                   <c:v>0.496821786492374</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>112.34076906318</c:v>
+                  <c:v>756.593890335167</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>505.140168518231</c:v>
+                  <c:v>503.048048472714</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>110.078040755329</c:v>
@@ -1002,19 +999,19 @@
                   <c:v>110.078040755329</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.6078976471035</c:v>
+                  <c:v>35.5157776015859</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>94.4899368191721</c:v>
+                  <c:v>738.743058091158</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.496821786492374</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>112.34076906318</c:v>
+                  <c:v>756.593890335167</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>505.140168518231</c:v>
+                  <c:v>503.048048472714</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>475.705585339464</c:v>
@@ -1026,10 +1023,10 @@
                   <c:v>54.1846694084083</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>37.3246378431819</c:v>
+                  <c:v>35.2325177976643</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>94.4899368191721</c:v>
+                  <c:v>738.743058091158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1134,10 +1131,10 @@
                   <c:v>0.376176244008714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85.0605382135076</c:v>
+                  <c:v>471.186564461646</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>433.239105021059</c:v>
+                  <c:v>431.342198154939</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>106.010598467663</c:v>
@@ -1155,19 +1152,19 @@
                   <c:v>106.010598467663</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.8148583765635</c:v>
+                  <c:v>15.9179515104434</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>71.5445064923747</c:v>
+                  <c:v>457.670532740513</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.376176244008714</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>85.0605382135076</c:v>
+                  <c:v>471.186564461646</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>433.239105021059</c:v>
+                  <c:v>431.342198154939</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>375.588085560978</c:v>
@@ -1179,10 +1176,10 @@
                   <c:v>37.7926919410414</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.6003838667596</c:v>
+                  <c:v>15.7034770006395</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>71.5445064923747</c:v>
+                  <c:v>457.670532740513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1284,58 +1281,58 @@
                 <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.500733769063181</c:v>
+                  <c:v>0.524205664488017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>113.22534204793</c:v>
+                  <c:v>560.775531881157</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>516.760068070858</c:v>
+                  <c:v>546.598827559144</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>120.757100794285</c:v>
+                  <c:v>130.014129316797</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>187.822872198242</c:v>
+                  <c:v>198.83531932335</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>264.878388209995</c:v>
+                  <c:v>299.175467492826</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62.8746269807612</c:v>
+                  <c:v>68.0301251113002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>120.757100794285</c:v>
+                  <c:v>130.014129316797</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.2991150641695</c:v>
+                  <c:v>33.266153335098</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>95.2339520697167</c:v>
+                  <c:v>541.940795497715</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.500733769063181</c:v>
+                  <c:v>0.524205664488017</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>113.22534204793</c:v>
+                  <c:v>560.775531881157</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>516.760068070858</c:v>
+                  <c:v>546.598827559144</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>492.907065128141</c:v>
+                  <c:v>518.220333796839</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>264.878388209995</c:v>
+                  <c:v>299.175467492826</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>51.7856093797917</c:v>
+                  <c:v>53.7493273213981</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36.0136248680912</c:v>
+                  <c:v>32.9672807860784</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>95.2339520697167</c:v>
+                  <c:v>541.940795497715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1882,10 +1879,10 @@
                   <c:v>0.496821786492374</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107.878061002178</c:v>
+                  <c:v>752.131182274165</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>340.473177396253</c:v>
+                  <c:v>338.381057350735</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>110.572956534559</c:v>
@@ -1903,19 +1900,19 @@
                   <c:v>110.572956534559</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.0147024507197</c:v>
+                  <c:v>8.92258240520211</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>98.9526448801742</c:v>
+                  <c:v>743.20576615216</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.496821786492374</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>107.878061002178</c:v>
+                  <c:v>752.131182274165</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>340.473177396253</c:v>
+                  <c:v>338.381057350735</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>294.306837157998</c:v>
@@ -1927,10 +1924,10 @@
                   <c:v>15.3210756441634</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.6891305552948</c:v>
+                  <c:v>9.59701050977726</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>98.9526448801742</c:v>
+                  <c:v>743.20576615216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2035,10 +2032,10 @@
                   <c:v>0.376176244008714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81.6815302832244</c:v>
+                  <c:v>467.807556531363</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>308.554954592939</c:v>
+                  <c:v>306.658047726819</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>106.353450356532</c:v>
@@ -2056,19 +2053,19 @@
                   <c:v>106.353450356532</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59.1004116735496</c:v>
+                  <c:v>57.2035048074294</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74.9235144226579</c:v>
+                  <c:v>461.049540670796</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.376176244008714</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>81.6815302832244</c:v>
+                  <c:v>467.807556531363</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>308.554954592939</c:v>
+                  <c:v>306.658047726819</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>238.185660505533</c:v>
@@ -2080,10 +2077,10 @@
                   <c:v>8.37777649680253</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>59.6110652683208</c:v>
+                  <c:v>57.7141584022007</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>74.9235144226579</c:v>
+                  <c:v>461.049540670796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2185,58 +2182,58 @@
                 <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.500733769063181</c:v>
+                  <c:v>0.524205664488017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108.727494553376</c:v>
+                  <c:v>556.066847785297</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>350.797123062457</c:v>
+                  <c:v>372.857572657607</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>121.260975063151</c:v>
+                  <c:v>130.551188874729</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>157.344598505316</c:v>
+                  <c:v>166.944452902047</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>263.710639807316</c:v>
+                  <c:v>297.280750627985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>94.6944895728543</c:v>
+                  <c:v>101.357620113376</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>121.260975063151</c:v>
+                  <c:v>130.551188874729</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.7444868968804</c:v>
+                  <c:v>25.2399691717689</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>99.7317995642701</c:v>
+                  <c:v>546.649479593575</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.500733769063181</c:v>
+                  <c:v>0.524205664488017</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>108.727494553376</c:v>
+                  <c:v>556.066847785297</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>350.797123062457</c:v>
+                  <c:v>372.857572657607</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>310.088486424322</c:v>
+                  <c:v>326.848210567257</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>263.710639807316</c:v>
+                  <c:v>297.280750627985</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.6142167899467</c:v>
+                  <c:v>12.7383996701985</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19.4242254589719</c:v>
+                  <c:v>25.9515704789584</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>99.7317995642701</c:v>
+                  <c:v>546.649479593575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2352,7 +2349,7 @@
         <c:axId val="972653384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="600"/>
+          <c:max val="800"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3957,8 +3954,8 @@
   <sheetPr/>
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -4050,10 +4047,10 @@
         <v>0.496821786492374</v>
       </c>
       <c r="D2" s="4">
-        <v>112.34076906318</v>
+        <v>756.593890335167</v>
       </c>
       <c r="E2" s="4">
-        <v>505.140168518231</v>
+        <v>503.048048472714</v>
       </c>
       <c r="F2" s="4">
         <v>110.078040755329</v>
@@ -4071,19 +4068,19 @@
         <v>110.078040755329</v>
       </c>
       <c r="K2" s="4">
-        <v>37.6078976471035</v>
+        <v>35.5157776015859</v>
       </c>
       <c r="L2" s="4">
-        <v>94.4899368191721</v>
+        <v>738.743058091158</v>
       </c>
       <c r="M2" s="4">
         <v>0.496821786492374</v>
       </c>
       <c r="N2" s="4">
-        <v>112.34076906318</v>
+        <v>756.593890335167</v>
       </c>
       <c r="O2" s="4">
-        <v>505.140168518231</v>
+        <v>503.048048472714</v>
       </c>
       <c r="P2" s="4">
         <v>475.705585339464</v>
@@ -4095,12 +4092,12 @@
         <v>54.1846694084083</v>
       </c>
       <c r="S2" s="4">
-        <v>37.3246378431819</v>
+        <v>35.2325177976643</v>
       </c>
       <c r="T2" s="4">
-        <v>94.4899368191721</v>
-      </c>
-      <c r="U2" s="6"/>
+        <v>738.743058091158</v>
+      </c>
+      <c r="U2" s="5"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:21">
       <c r="A3" s="3"/>
@@ -4111,10 +4108,10 @@
         <v>0.376176244008714</v>
       </c>
       <c r="D3" s="4">
-        <v>85.0605382135076</v>
+        <v>471.186564461646</v>
       </c>
       <c r="E3" s="4">
-        <v>433.239105021059</v>
+        <v>431.342198154939</v>
       </c>
       <c r="F3" s="4">
         <v>106.010598467663</v>
@@ -4132,19 +4129,19 @@
         <v>106.010598467663</v>
       </c>
       <c r="K3" s="4">
-        <v>17.8148583765635</v>
+        <v>15.9179515104434</v>
       </c>
       <c r="L3" s="4">
-        <v>71.5445064923747</v>
+        <v>457.670532740513</v>
       </c>
       <c r="M3" s="4">
         <v>0.376176244008714</v>
       </c>
       <c r="N3" s="4">
-        <v>85.0605382135076</v>
+        <v>471.186564461646</v>
       </c>
       <c r="O3" s="4">
-        <v>433.239105021059</v>
+        <v>431.342198154939</v>
       </c>
       <c r="P3" s="4">
         <v>375.588085560978</v>
@@ -4156,12 +4153,12 @@
         <v>37.7926919410414</v>
       </c>
       <c r="S3" s="4">
-        <v>17.6003838667596</v>
+        <v>15.7034770006395</v>
       </c>
       <c r="T3" s="4">
-        <v>71.5445064923747</v>
-      </c>
-      <c r="U3" s="6"/>
+        <v>457.670532740513</v>
+      </c>
+      <c r="U3" s="5"/>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="3"/>
@@ -4169,81 +4166,81 @@
         <v>21</v>
       </c>
       <c r="C4" s="4">
-        <v>0.500733769063181</v>
+        <v>0.524205664488017</v>
       </c>
       <c r="D4" s="4">
-        <v>113.22534204793</v>
+        <v>560.775531881157</v>
       </c>
       <c r="E4" s="4">
-        <v>516.760068070858</v>
+        <v>546.598827559144</v>
       </c>
       <c r="F4" s="4">
-        <v>120.757100794285</v>
+        <v>130.014129316797</v>
       </c>
       <c r="G4" s="4">
-        <v>187.822872198242</v>
+        <v>198.83531932335</v>
       </c>
       <c r="H4" s="4">
-        <v>264.878388209995</v>
+        <v>299.175467492826</v>
       </c>
       <c r="I4" s="4">
-        <v>62.8746269807612</v>
+        <v>68.0301251113002</v>
       </c>
       <c r="J4" s="4">
-        <v>120.757100794285</v>
+        <v>130.014129316797</v>
       </c>
       <c r="K4" s="4">
-        <v>36.2991150641695</v>
+        <v>33.266153335098</v>
       </c>
       <c r="L4" s="4">
-        <v>95.2339520697167</v>
+        <v>541.940795497715</v>
       </c>
       <c r="M4" s="4">
-        <v>0.500733769063181</v>
+        <v>0.524205664488017</v>
       </c>
       <c r="N4" s="4">
-        <v>113.22534204793</v>
+        <v>560.775531881157</v>
       </c>
       <c r="O4" s="4">
-        <v>516.760068070858</v>
+        <v>546.598827559144</v>
       </c>
       <c r="P4" s="4">
-        <v>492.907065128141</v>
+        <v>518.220333796839</v>
       </c>
       <c r="Q4" s="4">
-        <v>264.878388209995</v>
+        <v>299.175467492826</v>
       </c>
       <c r="R4" s="4">
-        <v>51.7856093797917</v>
+        <v>53.7493273213981</v>
       </c>
       <c r="S4" s="4">
-        <v>36.0136248680912</v>
+        <v>32.9672807860784</v>
       </c>
       <c r="T4" s="4">
-        <v>95.2339520697167</v>
-      </c>
-      <c r="U4" s="6"/>
+        <v>541.940795497715</v>
+      </c>
+      <c r="U4" s="5"/>
     </row>
     <row r="5" spans="3:21">
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="3" t="s">
@@ -4256,10 +4253,10 @@
         <v>0.496821786492374</v>
       </c>
       <c r="D6" s="4">
-        <v>107.878061002178</v>
+        <v>752.131182274165</v>
       </c>
       <c r="E6" s="4">
-        <v>340.473177396253</v>
+        <v>338.381057350735</v>
       </c>
       <c r="F6" s="4">
         <v>110.572956534559</v>
@@ -4277,19 +4274,19 @@
         <v>110.572956534559</v>
       </c>
       <c r="K6" s="4">
-        <v>11.0147024507197</v>
+        <v>8.92258240520211</v>
       </c>
       <c r="L6" s="4">
-        <v>98.9526448801742</v>
+        <v>743.20576615216</v>
       </c>
       <c r="M6" s="4">
         <v>0.496821786492374</v>
       </c>
       <c r="N6" s="4">
-        <v>107.878061002178</v>
+        <v>752.131182274165</v>
       </c>
       <c r="O6" s="4">
-        <v>340.473177396253</v>
+        <v>338.381057350735</v>
       </c>
       <c r="P6" s="4">
         <v>294.306837157998</v>
@@ -4301,12 +4298,12 @@
         <v>15.3210756441634</v>
       </c>
       <c r="S6" s="4">
-        <v>11.6891305552948</v>
+        <v>9.59701050977726</v>
       </c>
       <c r="T6" s="4">
-        <v>98.9526448801742</v>
-      </c>
-      <c r="U6" s="6"/>
+        <v>743.20576615216</v>
+      </c>
+      <c r="U6" s="5"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:21">
       <c r="A7" s="3"/>
@@ -4317,10 +4314,10 @@
         <v>0.376176244008714</v>
       </c>
       <c r="D7" s="4">
-        <v>81.6815302832244</v>
+        <v>467.807556531363</v>
       </c>
       <c r="E7" s="4">
-        <v>308.554954592939</v>
+        <v>306.658047726819</v>
       </c>
       <c r="F7" s="4">
         <v>106.353450356532</v>
@@ -4338,19 +4335,19 @@
         <v>106.353450356532</v>
       </c>
       <c r="K7" s="4">
-        <v>59.1004116735496</v>
+        <v>57.2035048074294</v>
       </c>
       <c r="L7" s="4">
-        <v>74.9235144226579</v>
+        <v>461.049540670796</v>
       </c>
       <c r="M7" s="4">
         <v>0.376176244008714</v>
       </c>
       <c r="N7" s="4">
-        <v>81.6815302832244</v>
+        <v>467.807556531363</v>
       </c>
       <c r="O7" s="4">
-        <v>308.554954592939</v>
+        <v>306.658047726819</v>
       </c>
       <c r="P7" s="4">
         <v>238.185660505533</v>
@@ -4362,12 +4359,12 @@
         <v>8.37777649680253</v>
       </c>
       <c r="S7" s="4">
-        <v>59.6110652683208</v>
+        <v>57.7141584022007</v>
       </c>
       <c r="T7" s="4">
-        <v>74.9235144226579</v>
-      </c>
-      <c r="U7" s="6"/>
+        <v>461.049540670796</v>
+      </c>
+      <c r="U7" s="5"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="3"/>
@@ -4375,60 +4372,60 @@
         <v>21</v>
       </c>
       <c r="C8" s="4">
-        <v>0.500733769063181</v>
+        <v>0.524205664488017</v>
       </c>
       <c r="D8" s="4">
-        <v>108.727494553376</v>
+        <v>556.066847785297</v>
       </c>
       <c r="E8" s="4">
-        <v>350.797123062457</v>
+        <v>372.857572657607</v>
       </c>
       <c r="F8" s="4">
-        <v>121.260975063151</v>
+        <v>130.551188874729</v>
       </c>
       <c r="G8" s="4">
-        <v>157.344598505316</v>
+        <v>166.944452902047</v>
       </c>
       <c r="H8" s="4">
-        <v>263.710639807316</v>
+        <v>297.280750627985</v>
       </c>
       <c r="I8" s="4">
-        <v>94.6944895728543</v>
+        <v>101.357620113376</v>
       </c>
       <c r="J8" s="4">
-        <v>121.260975063151</v>
+        <v>130.551188874729</v>
       </c>
       <c r="K8" s="4">
-        <v>18.7444868968804</v>
+        <v>25.2399691717689</v>
       </c>
       <c r="L8" s="4">
-        <v>99.7317995642701</v>
+        <v>546.649479593575</v>
       </c>
       <c r="M8" s="4">
-        <v>0.500733769063181</v>
+        <v>0.524205664488017</v>
       </c>
       <c r="N8" s="4">
-        <v>108.727494553376</v>
+        <v>556.066847785297</v>
       </c>
       <c r="O8" s="4">
-        <v>350.797123062457</v>
+        <v>372.857572657607</v>
       </c>
       <c r="P8" s="4">
-        <v>310.088486424322</v>
+        <v>326.848210567257</v>
       </c>
       <c r="Q8" s="4">
-        <v>263.710639807316</v>
+        <v>297.280750627985</v>
       </c>
       <c r="R8" s="4">
-        <v>12.6142167899467</v>
+        <v>12.7383996701985</v>
       </c>
       <c r="S8" s="4">
-        <v>19.4242254589719</v>
+        <v>25.9515704789584</v>
       </c>
       <c r="T8" s="4">
-        <v>99.7317995642701</v>
-      </c>
-      <c r="U8" s="6"/>
+        <v>546.649479593575</v>
+      </c>
+      <c r="U8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/analysis/cfg-case-study/result-summary/power-analysis/power_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/power-analysis/power_1500_3000_ft.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="27948" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
+    <sheet name="Each eVTOL" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
   <si>
     <t>Depart Taxi</t>
   </si>
@@ -2529,6 +2530,2157 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1600"/>
+              <a:t>Mission Segment Average Power: Archer Midnight</a:t>
+            </a:r>
+            <a:endParaRPr sz="1600"/>
+          </a:p>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1600" b="0"/>
+              <a:t>1500 ft VS. 3000 ft</a:t>
+            </a:r>
+            <a:endParaRPr sz="1600" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.265887046350214"/>
+          <c:y val="0.0278419122640228"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Each eVTOL'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1500 ft</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Each eVTOL'!$C$1:$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Depart Taxi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hover Climb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Transition Climb</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Depart Procedures</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Accelerate Climb</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cruise</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Decelerate Descend</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Arrive Procedures</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Transition Descend</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Hover Descend</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Arrive Taxi</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Reserve Hover Climb</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Reserve Transition Climb</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Reserve Accelerate Climb</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Reserve Cruise</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Reserve Decelerate Descend</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Reserve Transition Descend</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Reserve Hover Descend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Each eVTOL'!$C$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000_ </c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.496821786492374</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>756.593890335167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>503.048048472714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110.078040755329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>173.00486266683</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>266.719277786901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.0327756151108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110.078040755329</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.5157776015859</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>738.743058091158</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.496821786492374</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>756.593890335167</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>503.048048472714</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>475.705585339464</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>266.719277786901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54.1846694084083</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35.2325177976643</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>738.743058091158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Each eVTOL'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3000 ft</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Each eVTOL'!$C$1:$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Depart Taxi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hover Climb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Transition Climb</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Depart Procedures</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Accelerate Climb</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cruise</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Decelerate Descend</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Arrive Procedures</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Transition Descend</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Hover Descend</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Arrive Taxi</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Reserve Hover Climb</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Reserve Transition Climb</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Reserve Accelerate Climb</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Reserve Cruise</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Reserve Decelerate Descend</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Reserve Transition Descend</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Reserve Hover Descend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Each eVTOL'!$C$6:$T$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000_ </c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.496821786492374</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>752.131182274165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>338.381057350735</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110.572956534559</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>142.756260863359</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>263.645439032307</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80.5956059069322</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110.572956534559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.92258240520211</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>743.20576615216</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.496821786492374</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>752.131182274165</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>338.381057350735</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>294.306837157998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>263.645439032307</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.3210756441634</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.59701050977726</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>743.20576615216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="246"/>
+        <c:overlap val="-28"/>
+        <c:axId val="431083210"/>
+        <c:axId val="972653384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="431083210"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="vi-VN" altLang="en-US" sz="1400"/>
+                  <a:t>Mission Segment</a:t>
+                </a:r>
+                <a:endParaRPr lang="vi-VN" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.424700189354092"/>
+              <c:y val="0.854061251664447"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="972653384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="972653384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1400"/>
+                  <a:t>Average Power (kW)</a:t>
+                </a:r>
+                <a:endParaRPr sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0103794094957571"/>
+              <c:y val="0.203555259653795"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0_);[Red]\(0\)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="431083210"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{f36d3161-6aac-453e-b94d-a85517923ba3}"/>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1600"/>
+              <a:t>Mission Segment Average Power: Supernal S-A2</a:t>
+            </a:r>
+            <a:endParaRPr sz="1600"/>
+          </a:p>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1600" b="0"/>
+              <a:t>1500 ft VS. 3000 ft</a:t>
+            </a:r>
+            <a:endParaRPr sz="1600" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.265887046350214"/>
+          <c:y val="0.0278419122640228"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Each eVTOL'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1500 ft</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Each eVTOL'!$C$1:$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Depart Taxi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hover Climb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Transition Climb</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Depart Procedures</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Accelerate Climb</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cruise</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Decelerate Descend</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Arrive Procedures</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Transition Descend</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Hover Descend</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Arrive Taxi</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Reserve Hover Climb</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Reserve Transition Climb</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Reserve Accelerate Climb</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Reserve Cruise</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Reserve Decelerate Descend</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Reserve Transition Descend</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Reserve Hover Descend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Each eVTOL'!$C$4:$T$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000_ </c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.524205664488017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>560.775531881157</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>546.598827559144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130.014129316797</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>198.83531932335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>299.175467492826</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.0301251113002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130.014129316797</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.266153335098</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>541.940795497715</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.524205664488017</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>560.775531881157</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>546.598827559144</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>518.220333796839</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>299.175467492826</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>53.7493273213981</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32.9672807860784</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>541.940795497715</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Each eVTOL'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3000 ft</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Each eVTOL'!$C$1:$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Depart Taxi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hover Climb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Transition Climb</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Depart Procedures</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Accelerate Climb</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cruise</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Decelerate Descend</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Arrive Procedures</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Transition Descend</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Hover Descend</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Arrive Taxi</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Reserve Hover Climb</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Reserve Transition Climb</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Reserve Accelerate Climb</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Reserve Cruise</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Reserve Decelerate Descend</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Reserve Transition Descend</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Reserve Hover Descend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Each eVTOL'!$C$8:$T$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000_ </c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.524205664488017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>556.066847785297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>372.857572657607</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130.551188874729</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>166.944452902047</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>297.280750627985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101.357620113376</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130.551188874729</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.2399691717689</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>546.649479593575</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.524205664488017</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>556.066847785297</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>372.857572657607</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>326.848210567257</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>297.280750627985</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.7383996701985</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.9515704789584</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>546.649479593575</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="246"/>
+        <c:overlap val="-28"/>
+        <c:axId val="431083210"/>
+        <c:axId val="972653384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="431083210"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="vi-VN" altLang="en-US" sz="1400"/>
+                  <a:t>Mission Segment</a:t>
+                </a:r>
+                <a:endParaRPr lang="vi-VN" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.424700189354092"/>
+              <c:y val="0.854061251664447"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="972653384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="972653384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1400"/>
+                  <a:t>Average Power (kW)</a:t>
+                </a:r>
+                <a:endParaRPr sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0103794094957571"/>
+              <c:y val="0.203555259653795"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0_);[Red]\(0\)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="431083210"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{f36d3161-6aac-453e-b94d-a85517923ba3}"/>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1600"/>
+              <a:t>Mission Segment Average Power: Joby S4</a:t>
+            </a:r>
+            <a:endParaRPr sz="1600"/>
+          </a:p>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1600" b="0"/>
+              <a:t>1500 ft VS. 3000 ft</a:t>
+            </a:r>
+            <a:endParaRPr sz="1600" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.320028290476731"/>
+          <c:y val="0.0302106449920133"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Each eVTOL'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1500 ft</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Each eVTOL'!$C$1:$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Depart Taxi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hover Climb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Transition Climb</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Depart Procedures</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Accelerate Climb</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cruise</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Decelerate Descend</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Arrive Procedures</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Transition Descend</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Hover Descend</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Arrive Taxi</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Reserve Hover Climb</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Reserve Transition Climb</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Reserve Accelerate Climb</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Reserve Cruise</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Reserve Decelerate Descend</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Reserve Transition Descend</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Reserve Hover Descend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Each eVTOL'!$C$3:$T$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000_ </c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.376176244008714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>471.186564461646</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>431.342198154939</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106.010598467663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>146.393585622391</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>167.885855938558</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.5262164027593</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106.010598467663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.9179515104434</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>457.670532740513</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.376176244008714</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>471.186564461646</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>431.342198154939</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>375.588085560978</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>167.885855938558</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.7926919410414</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.7034770006395</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>457.670532740513</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Each eVTOL'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3000 ft</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Each eVTOL'!$C$1:$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Depart Taxi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hover Climb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Transition Climb</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Depart Procedures</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Accelerate Climb</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cruise</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Decelerate Descend</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Arrive Procedures</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Transition Descend</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Hover Descend</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Arrive Taxi</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Reserve Hover Climb</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Reserve Transition Climb</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Reserve Accelerate Climb</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Reserve Cruise</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Reserve Decelerate Descend</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Reserve Transition Descend</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Reserve Hover Descend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Each eVTOL'!$C$7:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000_ </c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.376176244008714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>467.807556531363</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>306.658047726819</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106.353450356532</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>123.43681470638</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>168.859993234217</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.3709203708685</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106.353450356532</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.2035048074294</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>461.049540670796</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.376176244008714</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>467.807556531363</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>306.658047726819</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>238.185660505533</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>168.859993234217</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.37777649680253</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57.7141584022007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>461.049540670796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="246"/>
+        <c:overlap val="-28"/>
+        <c:axId val="431083210"/>
+        <c:axId val="972653384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="431083210"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="vi-VN" altLang="en-US" sz="1400"/>
+                  <a:t>Mission Segment</a:t>
+                </a:r>
+                <a:endParaRPr lang="vi-VN" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.424700189354092"/>
+              <c:y val="0.854061251664447"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="972653384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="972653384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1400"/>
+                  <a:t>Average Power (kW)</a:t>
+                </a:r>
+                <a:endParaRPr sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0103794094957571"/>
+              <c:y val="0.203555259653795"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0_);[Red]\(0\)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="431083210"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{f36d3161-6aac-453e-b94d-a85517923ba3}"/>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2609,6 +4761,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10001">
   <cs:axisTitle>
@@ -3120,6 +5392,1536 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10001">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10001">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10001">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10001">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3686,6 +7488,101 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>869315</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>145415</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="387350" y="2143125"/>
+        <a:ext cx="9054465" cy="4768850"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361315</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>128905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>843280</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="361315" y="7078345"/>
+        <a:ext cx="9054465" cy="4768850"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1036320</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>718185</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9608820" y="2129155"/>
+        <a:ext cx="9054465" cy="4768850"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3954,8 +7851,8 @@
   <sheetPr/>
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -4436,4 +8333,493 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="15.1111111111111" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.5555555555556" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.4444444444444" style="2" customWidth="1"/>
+    <col min="5" max="6" width="19.2222222222222" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.4444444444444" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.1111111111111" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.8888888888889" style="2" customWidth="1"/>
+    <col min="10" max="12" width="19.2222222222222" style="2" customWidth="1"/>
+    <col min="13" max="13" width="21.5555555555556" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.4444444444444" style="2" customWidth="1"/>
+    <col min="15" max="15" width="23.1111111111111" style="2" customWidth="1"/>
+    <col min="16" max="16" width="23.7777777777778" style="2" customWidth="1"/>
+    <col min="17" max="17" width="18.1111111111111" style="2" customWidth="1"/>
+    <col min="18" max="18" width="26.6666666666667" style="2" customWidth="1"/>
+    <col min="19" max="19" width="25.7777777777778" style="2" customWidth="1"/>
+    <col min="20" max="20" width="22.1111111111111" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:20">
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.496821786492374</v>
+      </c>
+      <c r="D2" s="4">
+        <v>756.593890335167</v>
+      </c>
+      <c r="E2" s="4">
+        <v>503.048048472714</v>
+      </c>
+      <c r="F2" s="4">
+        <v>110.078040755329</v>
+      </c>
+      <c r="G2" s="4">
+        <v>173.00486266683</v>
+      </c>
+      <c r="H2" s="4">
+        <v>266.719277786901</v>
+      </c>
+      <c r="I2" s="4">
+        <v>49.0327756151108</v>
+      </c>
+      <c r="J2" s="4">
+        <v>110.078040755329</v>
+      </c>
+      <c r="K2" s="4">
+        <v>35.5157776015859</v>
+      </c>
+      <c r="L2" s="4">
+        <v>738.743058091158</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0.496821786492374</v>
+      </c>
+      <c r="N2" s="4">
+        <v>756.593890335167</v>
+      </c>
+      <c r="O2" s="4">
+        <v>503.048048472714</v>
+      </c>
+      <c r="P2" s="4">
+        <v>475.705585339464</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>266.719277786901</v>
+      </c>
+      <c r="R2" s="4">
+        <v>54.1846694084083</v>
+      </c>
+      <c r="S2" s="4">
+        <v>35.2325177976643</v>
+      </c>
+      <c r="T2" s="4">
+        <v>738.743058091158</v>
+      </c>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:21">
+      <c r="A3" s="3"/>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.376176244008714</v>
+      </c>
+      <c r="D3" s="4">
+        <v>471.186564461646</v>
+      </c>
+      <c r="E3" s="4">
+        <v>431.342198154939</v>
+      </c>
+      <c r="F3" s="4">
+        <v>106.010598467663</v>
+      </c>
+      <c r="G3" s="4">
+        <v>146.393585622391</v>
+      </c>
+      <c r="H3" s="4">
+        <v>167.885855938558</v>
+      </c>
+      <c r="I3" s="4">
+        <v>52.5262164027593</v>
+      </c>
+      <c r="J3" s="4">
+        <v>106.010598467663</v>
+      </c>
+      <c r="K3" s="4">
+        <v>15.9179515104434</v>
+      </c>
+      <c r="L3" s="4">
+        <v>457.670532740513</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.376176244008714</v>
+      </c>
+      <c r="N3" s="4">
+        <v>471.186564461646</v>
+      </c>
+      <c r="O3" s="4">
+        <v>431.342198154939</v>
+      </c>
+      <c r="P3" s="4">
+        <v>375.588085560978</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>167.885855938558</v>
+      </c>
+      <c r="R3" s="4">
+        <v>37.7926919410414</v>
+      </c>
+      <c r="S3" s="4">
+        <v>15.7034770006395</v>
+      </c>
+      <c r="T3" s="4">
+        <v>457.670532740513</v>
+      </c>
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.524205664488017</v>
+      </c>
+      <c r="D4" s="4">
+        <v>560.775531881157</v>
+      </c>
+      <c r="E4" s="4">
+        <v>546.598827559144</v>
+      </c>
+      <c r="F4" s="4">
+        <v>130.014129316797</v>
+      </c>
+      <c r="G4" s="4">
+        <v>198.83531932335</v>
+      </c>
+      <c r="H4" s="4">
+        <v>299.175467492826</v>
+      </c>
+      <c r="I4" s="4">
+        <v>68.0301251113002</v>
+      </c>
+      <c r="J4" s="4">
+        <v>130.014129316797</v>
+      </c>
+      <c r="K4" s="4">
+        <v>33.266153335098</v>
+      </c>
+      <c r="L4" s="4">
+        <v>541.940795497715</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.524205664488017</v>
+      </c>
+      <c r="N4" s="4">
+        <v>560.775531881157</v>
+      </c>
+      <c r="O4" s="4">
+        <v>546.598827559144</v>
+      </c>
+      <c r="P4" s="4">
+        <v>518.220333796839</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>299.175467492826</v>
+      </c>
+      <c r="R4" s="4">
+        <v>53.7493273213981</v>
+      </c>
+      <c r="S4" s="4">
+        <v>32.9672807860784</v>
+      </c>
+      <c r="T4" s="4">
+        <v>541.940795497715</v>
+      </c>
+      <c r="U4" s="5"/>
+    </row>
+    <row r="5" spans="3:21">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.496821786492374</v>
+      </c>
+      <c r="D6" s="4">
+        <v>752.131182274165</v>
+      </c>
+      <c r="E6" s="4">
+        <v>338.381057350735</v>
+      </c>
+      <c r="F6" s="4">
+        <v>110.572956534559</v>
+      </c>
+      <c r="G6" s="4">
+        <v>142.756260863359</v>
+      </c>
+      <c r="H6" s="4">
+        <v>263.645439032307</v>
+      </c>
+      <c r="I6" s="4">
+        <v>80.5956059069322</v>
+      </c>
+      <c r="J6" s="4">
+        <v>110.572956534559</v>
+      </c>
+      <c r="K6" s="4">
+        <v>8.92258240520211</v>
+      </c>
+      <c r="L6" s="4">
+        <v>743.20576615216</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.496821786492374</v>
+      </c>
+      <c r="N6" s="4">
+        <v>752.131182274165</v>
+      </c>
+      <c r="O6" s="4">
+        <v>338.381057350735</v>
+      </c>
+      <c r="P6" s="4">
+        <v>294.306837157998</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>263.645439032307</v>
+      </c>
+      <c r="R6" s="4">
+        <v>15.3210756441634</v>
+      </c>
+      <c r="S6" s="4">
+        <v>9.59701050977726</v>
+      </c>
+      <c r="T6" s="4">
+        <v>743.20576615216</v>
+      </c>
+      <c r="U6" s="5"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:21">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.376176244008714</v>
+      </c>
+      <c r="D7" s="4">
+        <v>467.807556531363</v>
+      </c>
+      <c r="E7" s="4">
+        <v>306.658047726819</v>
+      </c>
+      <c r="F7" s="4">
+        <v>106.353450356532</v>
+      </c>
+      <c r="G7" s="4">
+        <v>123.43681470638</v>
+      </c>
+      <c r="H7" s="4">
+        <v>168.859993234217</v>
+      </c>
+      <c r="I7" s="4">
+        <v>76.3709203708685</v>
+      </c>
+      <c r="J7" s="4">
+        <v>106.353450356532</v>
+      </c>
+      <c r="K7" s="4">
+        <v>57.2035048074294</v>
+      </c>
+      <c r="L7" s="4">
+        <v>461.049540670796</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.376176244008714</v>
+      </c>
+      <c r="N7" s="4">
+        <v>467.807556531363</v>
+      </c>
+      <c r="O7" s="4">
+        <v>306.658047726819</v>
+      </c>
+      <c r="P7" s="4">
+        <v>238.185660505533</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>168.859993234217</v>
+      </c>
+      <c r="R7" s="4">
+        <v>8.37777649680253</v>
+      </c>
+      <c r="S7" s="4">
+        <v>57.7141584022007</v>
+      </c>
+      <c r="T7" s="4">
+        <v>461.049540670796</v>
+      </c>
+      <c r="U7" s="5"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.524205664488017</v>
+      </c>
+      <c r="D8" s="4">
+        <v>556.066847785297</v>
+      </c>
+      <c r="E8" s="4">
+        <v>372.857572657607</v>
+      </c>
+      <c r="F8" s="4">
+        <v>130.551188874729</v>
+      </c>
+      <c r="G8" s="4">
+        <v>166.944452902047</v>
+      </c>
+      <c r="H8" s="4">
+        <v>297.280750627985</v>
+      </c>
+      <c r="I8" s="4">
+        <v>101.357620113376</v>
+      </c>
+      <c r="J8" s="4">
+        <v>130.551188874729</v>
+      </c>
+      <c r="K8" s="4">
+        <v>25.2399691717689</v>
+      </c>
+      <c r="L8" s="4">
+        <v>546.649479593575</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.524205664488017</v>
+      </c>
+      <c r="N8" s="4">
+        <v>556.066847785297</v>
+      </c>
+      <c r="O8" s="4">
+        <v>372.857572657607</v>
+      </c>
+      <c r="P8" s="4">
+        <v>326.848210567257</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>297.280750627985</v>
+      </c>
+      <c r="R8" s="4">
+        <v>12.7383996701985</v>
+      </c>
+      <c r="S8" s="4">
+        <v>25.9515704789584</v>
+      </c>
+      <c r="T8" s="4">
+        <v>546.649479593575</v>
+      </c>
+      <c r="U8" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/analysis/cfg-case-study/result-summary/power-analysis/power_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/power-analysis/power_1500_3000_ft.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12240" activeTab="1"/>
+    <workbookView windowWidth="27948" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -982,25 +982,25 @@
                   <c:v>756.593890335167</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>503.048048472714</c:v>
+                  <c:v>503.003644852478</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110.078040755329</c:v>
+                  <c:v>109.724991106133</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>173.00486266683</c:v>
+                  <c:v>172.411548672777</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>266.719277786901</c:v>
+                  <c:v>264.23650135357</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49.0327756151108</c:v>
+                  <c:v>48.4394616210579</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>110.078040755329</c:v>
+                  <c:v>109.724991106133</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.5157776015859</c:v>
+                  <c:v>35.5251023618353</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>738.743058091158</c:v>
@@ -1012,19 +1012,19 @@
                   <c:v>756.593890335167</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>503.048048472714</c:v>
+                  <c:v>503.003644852478</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>475.705585339464</c:v>
+                  <c:v>475.112271345411</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>266.719277786901</c:v>
+                  <c:v>264.23650135357</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>54.1846694084083</c:v>
+                  <c:v>54.3092653471595</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35.2325177976643</c:v>
+                  <c:v>35.2418425579138</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>738.743058091158</c:v>
@@ -1135,25 +1135,25 @@
                   <c:v>471.186564461646</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>431.342198154939</c:v>
+                  <c:v>431.313660043604</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>106.010598467663</c:v>
+                  <c:v>105.783694216568</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>146.393585622391</c:v>
+                  <c:v>146.012263993007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>167.885855938558</c:v>
+                  <c:v>166.249633960601</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.5262164027593</c:v>
+                  <c:v>52.1448947733746</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>106.010598467663</c:v>
+                  <c:v>105.783694216568</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.9179515104434</c:v>
+                  <c:v>15.9239445138237</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>457.670532740513</c:v>
@@ -1165,19 +1165,19 @@
                   <c:v>471.186564461646</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>431.342198154939</c:v>
+                  <c:v>431.313660043604</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>375.588085560978</c:v>
+                  <c:v>375.206763931594</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>167.885855938558</c:v>
+                  <c:v>166.249633960601</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>37.7926919410414</c:v>
+                  <c:v>37.8727694832122</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.7034770006395</c:v>
+                  <c:v>15.7094700040198</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>457.670532740513</c:v>
@@ -1288,25 +1288,25 @@
                   <c:v>560.775531881157</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>546.598827559144</c:v>
+                  <c:v>546.553955373282</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130.014129316797</c:v>
+                  <c:v>129.657354139609</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>198.83531932335</c:v>
+                  <c:v>198.235744431155</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>299.175467492826</c:v>
+                  <c:v>295.25032082899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>68.0301251113002</c:v>
+                  <c:v>67.430550219105</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>130.014129316797</c:v>
+                  <c:v>129.657354139609</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.266153335098</c:v>
+                  <c:v>33.2755764941291</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>541.940795497715</c:v>
@@ -1318,19 +1318,19 @@
                   <c:v>560.775531881157</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>546.598827559144</c:v>
+                  <c:v>546.553955373282</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>518.220333796839</c:v>
+                  <c:v>517.620758904643</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>299.175467492826</c:v>
+                  <c:v>295.25032082899</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>53.7493273213981</c:v>
+                  <c:v>53.8752380487591</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32.9672807860784</c:v>
+                  <c:v>32.9767039451096</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>541.940795497715</c:v>
@@ -1883,25 +1883,25 @@
                   <c:v>752.131182274165</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>338.381057350735</c:v>
+                  <c:v>338.281555997334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110.572956534559</c:v>
+                  <c:v>109.7818291957</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>142.756260863359</c:v>
+                  <c:v>141.426739867396</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>263.645439032307</c:v>
+                  <c:v>258.399766675242</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80.5956059069322</c:v>
+                  <c:v>79.2660849109692</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>110.572956534559</c:v>
+                  <c:v>109.7818291957</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.92258240520211</c:v>
+                  <c:v>8.82308105180094</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>743.20576615216</c:v>
@@ -1913,19 +1913,19 @@
                   <c:v>752.131182274165</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>338.381057350735</c:v>
+                  <c:v>338.281555997334</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>294.306837157998</c:v>
+                  <c:v>292.977316162035</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>263.645439032307</c:v>
+                  <c:v>258.399766675242</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.3210756441634</c:v>
+                  <c:v>15.6002750533157</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.59701050977726</c:v>
+                  <c:v>9.49750915637609</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>743.20576615216</c:v>
@@ -2036,25 +2036,25 @@
                   <c:v>467.807556531363</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>306.658047726819</c:v>
+                  <c:v>306.594035003681</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>106.353450356532</c:v>
+                  <c:v>105.844490291388</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>123.43681470638</c:v>
+                  <c:v>122.581487049911</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>168.859993234217</c:v>
+                  <c:v>165.402256563675</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76.3709203708685</c:v>
+                  <c:v>75.5155927143995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>106.353450356532</c:v>
+                  <c:v>105.844490291388</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57.2035048074294</c:v>
+                  <c:v>57.1394920842917</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>461.049540670796</c:v>
@@ -2066,19 +2066,19 @@
                   <c:v>467.807556531363</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>306.658047726819</c:v>
+                  <c:v>306.594035003681</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>238.185660505533</c:v>
+                  <c:v>237.330332849064</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>168.859993234217</c:v>
+                  <c:v>165.402256563675</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.37777649680253</c:v>
+                  <c:v>8.55739530466103</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>57.7141584022007</c:v>
+                  <c:v>57.650145679063</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>461.049540670796</c:v>
@@ -2189,25 +2189,25 @@
                   <c:v>556.066847785297</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>372.857572657607</c:v>
+                  <c:v>372.756990627751</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130.551188874729</c:v>
+                  <c:v>129.751469163419</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>166.944452902047</c:v>
+                  <c:v>165.600492082029</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>297.280750627985</c:v>
+                  <c:v>289.00518110753</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>101.357620113376</c:v>
+                  <c:v>100.013659293358</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>130.551188874729</c:v>
+                  <c:v>129.751469163419</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.2399691717689</c:v>
+                  <c:v>25.139387141913</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>546.649479593575</c:v>
@@ -2219,19 +2219,19 @@
                   <c:v>556.066847785297</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>372.857572657607</c:v>
+                  <c:v>372.756990627751</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>326.848210567257</c:v>
+                  <c:v>325.504249747239</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>297.280750627985</c:v>
+                  <c:v>289.00518110753</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.7383996701985</c:v>
+                  <c:v>13.0206314424023</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25.9515704789584</c:v>
+                  <c:v>25.8509884491025</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>546.649479593575</c:v>
@@ -2717,25 +2717,25 @@
                   <c:v>756.593890335167</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>503.048048472714</c:v>
+                  <c:v>503.003644852478</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110.078040755329</c:v>
+                  <c:v>109.724991106133</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>173.00486266683</c:v>
+                  <c:v>172.411548672777</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>266.719277786901</c:v>
+                  <c:v>264.23650135357</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49.0327756151108</c:v>
+                  <c:v>48.4394616210579</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>110.078040755329</c:v>
+                  <c:v>109.724991106133</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.5157776015859</c:v>
+                  <c:v>35.5251023618353</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>738.743058091158</c:v>
@@ -2747,19 +2747,19 @@
                   <c:v>756.593890335167</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>503.048048472714</c:v>
+                  <c:v>503.003644852478</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>475.705585339464</c:v>
+                  <c:v>475.112271345411</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>266.719277786901</c:v>
+                  <c:v>264.23650135357</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>54.1846694084083</c:v>
+                  <c:v>54.3092653471595</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35.2325177976643</c:v>
+                  <c:v>35.2418425579138</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>738.743058091158</c:v>
@@ -2870,25 +2870,25 @@
                   <c:v>752.131182274165</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>338.381057350735</c:v>
+                  <c:v>338.281555997334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110.572956534559</c:v>
+                  <c:v>109.7818291957</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>142.756260863359</c:v>
+                  <c:v>141.426739867396</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>263.645439032307</c:v>
+                  <c:v>258.399766675242</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80.5956059069322</c:v>
+                  <c:v>79.2660849109692</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>110.572956534559</c:v>
+                  <c:v>109.7818291957</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.92258240520211</c:v>
+                  <c:v>8.82308105180094</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>743.20576615216</c:v>
@@ -2900,19 +2900,19 @@
                   <c:v>752.131182274165</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>338.381057350735</c:v>
+                  <c:v>338.281555997334</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>294.306837157998</c:v>
+                  <c:v>292.977316162035</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>263.645439032307</c:v>
+                  <c:v>258.399766675242</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.3210756441634</c:v>
+                  <c:v>15.6002750533157</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.59701050977726</c:v>
+                  <c:v>9.49750915637609</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>743.20576615216</c:v>
@@ -3434,25 +3434,25 @@
                   <c:v>560.775531881157</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>546.598827559144</c:v>
+                  <c:v>546.553955373282</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130.014129316797</c:v>
+                  <c:v>129.657354139609</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>198.83531932335</c:v>
+                  <c:v>198.235744431155</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>299.175467492826</c:v>
+                  <c:v>295.25032082899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>68.0301251113002</c:v>
+                  <c:v>67.430550219105</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>130.014129316797</c:v>
+                  <c:v>129.657354139609</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.266153335098</c:v>
+                  <c:v>33.2755764941291</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>541.940795497715</c:v>
@@ -3464,19 +3464,19 @@
                   <c:v>560.775531881157</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>546.598827559144</c:v>
+                  <c:v>546.553955373282</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>518.220333796839</c:v>
+                  <c:v>517.620758904643</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>299.175467492826</c:v>
+                  <c:v>295.25032082899</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>53.7493273213981</c:v>
+                  <c:v>53.8752380487591</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32.9672807860784</c:v>
+                  <c:v>32.9767039451096</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>541.940795497715</c:v>
@@ -3587,25 +3587,25 @@
                   <c:v>556.066847785297</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>372.857572657607</c:v>
+                  <c:v>372.756990627751</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130.551188874729</c:v>
+                  <c:v>129.751469163419</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>166.944452902047</c:v>
+                  <c:v>165.600492082029</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>297.280750627985</c:v>
+                  <c:v>289.00518110753</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>101.357620113376</c:v>
+                  <c:v>100.013659293358</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>130.551188874729</c:v>
+                  <c:v>129.751469163419</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.2399691717689</c:v>
+                  <c:v>25.139387141913</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>546.649479593575</c:v>
@@ -3617,19 +3617,19 @@
                   <c:v>556.066847785297</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>372.857572657607</c:v>
+                  <c:v>372.756990627751</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>326.848210567257</c:v>
+                  <c:v>325.504249747239</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>297.280750627985</c:v>
+                  <c:v>289.00518110753</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.7383996701985</c:v>
+                  <c:v>13.0206314424023</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25.9515704789584</c:v>
+                  <c:v>25.8509884491025</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>546.649479593575</c:v>
@@ -4151,25 +4151,25 @@
                   <c:v>471.186564461646</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>431.342198154939</c:v>
+                  <c:v>431.313660043604</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>106.010598467663</c:v>
+                  <c:v>105.783694216568</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>146.393585622391</c:v>
+                  <c:v>146.012263993007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>167.885855938558</c:v>
+                  <c:v>166.249633960601</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.5262164027593</c:v>
+                  <c:v>52.1448947733746</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>106.010598467663</c:v>
+                  <c:v>105.783694216568</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.9179515104434</c:v>
+                  <c:v>15.9239445138237</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>457.670532740513</c:v>
@@ -4181,19 +4181,19 @@
                   <c:v>471.186564461646</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>431.342198154939</c:v>
+                  <c:v>431.313660043604</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>375.588085560978</c:v>
+                  <c:v>375.206763931594</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>167.885855938558</c:v>
+                  <c:v>166.249633960601</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>37.7926919410414</c:v>
+                  <c:v>37.8727694832122</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.7034770006395</c:v>
+                  <c:v>15.7094700040198</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>457.670532740513</c:v>
@@ -4304,25 +4304,25 @@
                   <c:v>467.807556531363</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>306.658047726819</c:v>
+                  <c:v>306.594035003681</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>106.353450356532</c:v>
+                  <c:v>105.844490291388</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>123.43681470638</c:v>
+                  <c:v>122.581487049911</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>168.859993234217</c:v>
+                  <c:v>165.402256563675</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76.3709203708685</c:v>
+                  <c:v>75.5155927143995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>106.353450356532</c:v>
+                  <c:v>105.844490291388</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57.2035048074294</c:v>
+                  <c:v>57.1394920842917</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>461.049540670796</c:v>
@@ -4334,19 +4334,19 @@
                   <c:v>467.807556531363</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>306.658047726819</c:v>
+                  <c:v>306.594035003681</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>238.185660505533</c:v>
+                  <c:v>237.330332849064</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>168.859993234217</c:v>
+                  <c:v>165.402256563675</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.37777649680253</c:v>
+                  <c:v>8.55739530466103</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>57.7141584022007</c:v>
+                  <c:v>57.650145679063</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>461.049540670796</c:v>
@@ -7466,15 +7466,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
+      <xdr:colOff>865505</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>161290</xdr:rowOff>
+      <xdr:rowOff>149860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>558165</xdr:colOff>
+      <xdr:colOff>547370</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7482,7 +7482,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9448800" y="1807210"/>
+        <a:off x="9438005" y="1795780"/>
         <a:ext cx="9054465" cy="4768850"/>
       </xdr:xfrm>
       <a:graphic>
@@ -7851,8 +7851,8 @@
   <sheetPr/>
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -7947,25 +7947,25 @@
         <v>756.593890335167</v>
       </c>
       <c r="E2" s="4">
-        <v>503.048048472714</v>
+        <v>503.003644852478</v>
       </c>
       <c r="F2" s="4">
-        <v>110.078040755329</v>
+        <v>109.724991106133</v>
       </c>
       <c r="G2" s="4">
-        <v>173.00486266683</v>
+        <v>172.411548672777</v>
       </c>
       <c r="H2" s="4">
-        <v>266.719277786901</v>
+        <v>264.23650135357</v>
       </c>
       <c r="I2" s="4">
-        <v>49.0327756151108</v>
+        <v>48.4394616210579</v>
       </c>
       <c r="J2" s="4">
-        <v>110.078040755329</v>
+        <v>109.724991106133</v>
       </c>
       <c r="K2" s="4">
-        <v>35.5157776015859</v>
+        <v>35.5251023618353</v>
       </c>
       <c r="L2" s="4">
         <v>738.743058091158</v>
@@ -7977,19 +7977,19 @@
         <v>756.593890335167</v>
       </c>
       <c r="O2" s="4">
-        <v>503.048048472714</v>
+        <v>503.003644852478</v>
       </c>
       <c r="P2" s="4">
-        <v>475.705585339464</v>
+        <v>475.112271345411</v>
       </c>
       <c r="Q2" s="4">
-        <v>266.719277786901</v>
+        <v>264.23650135357</v>
       </c>
       <c r="R2" s="4">
-        <v>54.1846694084083</v>
+        <v>54.3092653471595</v>
       </c>
       <c r="S2" s="4">
-        <v>35.2325177976643</v>
+        <v>35.2418425579138</v>
       </c>
       <c r="T2" s="4">
         <v>738.743058091158</v>
@@ -8008,25 +8008,25 @@
         <v>471.186564461646</v>
       </c>
       <c r="E3" s="4">
-        <v>431.342198154939</v>
+        <v>431.313660043604</v>
       </c>
       <c r="F3" s="4">
-        <v>106.010598467663</v>
+        <v>105.783694216568</v>
       </c>
       <c r="G3" s="4">
-        <v>146.393585622391</v>
+        <v>146.012263993007</v>
       </c>
       <c r="H3" s="4">
-        <v>167.885855938558</v>
+        <v>166.249633960601</v>
       </c>
       <c r="I3" s="4">
-        <v>52.5262164027593</v>
+        <v>52.1448947733746</v>
       </c>
       <c r="J3" s="4">
-        <v>106.010598467663</v>
+        <v>105.783694216568</v>
       </c>
       <c r="K3" s="4">
-        <v>15.9179515104434</v>
+        <v>15.9239445138237</v>
       </c>
       <c r="L3" s="4">
         <v>457.670532740513</v>
@@ -8038,19 +8038,19 @@
         <v>471.186564461646</v>
       </c>
       <c r="O3" s="4">
-        <v>431.342198154939</v>
+        <v>431.313660043604</v>
       </c>
       <c r="P3" s="4">
-        <v>375.588085560978</v>
+        <v>375.206763931594</v>
       </c>
       <c r="Q3" s="4">
-        <v>167.885855938558</v>
+        <v>166.249633960601</v>
       </c>
       <c r="R3" s="4">
-        <v>37.7926919410414</v>
+        <v>37.8727694832122</v>
       </c>
       <c r="S3" s="4">
-        <v>15.7034770006395</v>
+        <v>15.7094700040198</v>
       </c>
       <c r="T3" s="4">
         <v>457.670532740513</v>
@@ -8069,25 +8069,25 @@
         <v>560.775531881157</v>
       </c>
       <c r="E4" s="4">
-        <v>546.598827559144</v>
+        <v>546.553955373282</v>
       </c>
       <c r="F4" s="4">
-        <v>130.014129316797</v>
+        <v>129.657354139609</v>
       </c>
       <c r="G4" s="4">
-        <v>198.83531932335</v>
+        <v>198.235744431155</v>
       </c>
       <c r="H4" s="4">
-        <v>299.175467492826</v>
+        <v>295.25032082899</v>
       </c>
       <c r="I4" s="4">
-        <v>68.0301251113002</v>
+        <v>67.430550219105</v>
       </c>
       <c r="J4" s="4">
-        <v>130.014129316797</v>
+        <v>129.657354139609</v>
       </c>
       <c r="K4" s="4">
-        <v>33.266153335098</v>
+        <v>33.2755764941291</v>
       </c>
       <c r="L4" s="4">
         <v>541.940795497715</v>
@@ -8099,19 +8099,19 @@
         <v>560.775531881157</v>
       </c>
       <c r="O4" s="4">
-        <v>546.598827559144</v>
+        <v>546.553955373282</v>
       </c>
       <c r="P4" s="4">
-        <v>518.220333796839</v>
+        <v>517.620758904643</v>
       </c>
       <c r="Q4" s="4">
-        <v>299.175467492826</v>
+        <v>295.25032082899</v>
       </c>
       <c r="R4" s="4">
-        <v>53.7493273213981</v>
+        <v>53.8752380487591</v>
       </c>
       <c r="S4" s="4">
-        <v>32.9672807860784</v>
+        <v>32.9767039451096</v>
       </c>
       <c r="T4" s="4">
         <v>541.940795497715</v>
@@ -8153,25 +8153,25 @@
         <v>752.131182274165</v>
       </c>
       <c r="E6" s="4">
-        <v>338.381057350735</v>
+        <v>338.281555997334</v>
       </c>
       <c r="F6" s="4">
-        <v>110.572956534559</v>
+        <v>109.7818291957</v>
       </c>
       <c r="G6" s="4">
-        <v>142.756260863359</v>
+        <v>141.426739867396</v>
       </c>
       <c r="H6" s="4">
-        <v>263.645439032307</v>
+        <v>258.399766675242</v>
       </c>
       <c r="I6" s="4">
-        <v>80.5956059069322</v>
+        <v>79.2660849109692</v>
       </c>
       <c r="J6" s="4">
-        <v>110.572956534559</v>
+        <v>109.7818291957</v>
       </c>
       <c r="K6" s="4">
-        <v>8.92258240520211</v>
+        <v>8.82308105180094</v>
       </c>
       <c r="L6" s="4">
         <v>743.20576615216</v>
@@ -8183,19 +8183,19 @@
         <v>752.131182274165</v>
       </c>
       <c r="O6" s="4">
-        <v>338.381057350735</v>
+        <v>338.281555997334</v>
       </c>
       <c r="P6" s="4">
-        <v>294.306837157998</v>
+        <v>292.977316162035</v>
       </c>
       <c r="Q6" s="4">
-        <v>263.645439032307</v>
+        <v>258.399766675242</v>
       </c>
       <c r="R6" s="4">
-        <v>15.3210756441634</v>
+        <v>15.6002750533157</v>
       </c>
       <c r="S6" s="4">
-        <v>9.59701050977726</v>
+        <v>9.49750915637609</v>
       </c>
       <c r="T6" s="4">
         <v>743.20576615216</v>
@@ -8214,25 +8214,25 @@
         <v>467.807556531363</v>
       </c>
       <c r="E7" s="4">
-        <v>306.658047726819</v>
+        <v>306.594035003681</v>
       </c>
       <c r="F7" s="4">
-        <v>106.353450356532</v>
+        <v>105.844490291388</v>
       </c>
       <c r="G7" s="4">
-        <v>123.43681470638</v>
+        <v>122.581487049911</v>
       </c>
       <c r="H7" s="4">
-        <v>168.859993234217</v>
+        <v>165.402256563675</v>
       </c>
       <c r="I7" s="4">
-        <v>76.3709203708685</v>
+        <v>75.5155927143995</v>
       </c>
       <c r="J7" s="4">
-        <v>106.353450356532</v>
+        <v>105.844490291388</v>
       </c>
       <c r="K7" s="4">
-        <v>57.2035048074294</v>
+        <v>57.1394920842917</v>
       </c>
       <c r="L7" s="4">
         <v>461.049540670796</v>
@@ -8244,19 +8244,19 @@
         <v>467.807556531363</v>
       </c>
       <c r="O7" s="4">
-        <v>306.658047726819</v>
+        <v>306.594035003681</v>
       </c>
       <c r="P7" s="4">
-        <v>238.185660505533</v>
+        <v>237.330332849064</v>
       </c>
       <c r="Q7" s="4">
-        <v>168.859993234217</v>
+        <v>165.402256563675</v>
       </c>
       <c r="R7" s="4">
-        <v>8.37777649680253</v>
+        <v>8.55739530466103</v>
       </c>
       <c r="S7" s="4">
-        <v>57.7141584022007</v>
+        <v>57.650145679063</v>
       </c>
       <c r="T7" s="4">
         <v>461.049540670796</v>
@@ -8275,25 +8275,25 @@
         <v>556.066847785297</v>
       </c>
       <c r="E8" s="4">
-        <v>372.857572657607</v>
+        <v>372.756990627751</v>
       </c>
       <c r="F8" s="4">
-        <v>130.551188874729</v>
+        <v>129.751469163419</v>
       </c>
       <c r="G8" s="4">
-        <v>166.944452902047</v>
+        <v>165.600492082029</v>
       </c>
       <c r="H8" s="4">
-        <v>297.280750627985</v>
+        <v>289.00518110753</v>
       </c>
       <c r="I8" s="4">
-        <v>101.357620113376</v>
+        <v>100.013659293358</v>
       </c>
       <c r="J8" s="4">
-        <v>130.551188874729</v>
+        <v>129.751469163419</v>
       </c>
       <c r="K8" s="4">
-        <v>25.2399691717689</v>
+        <v>25.139387141913</v>
       </c>
       <c r="L8" s="4">
         <v>546.649479593575</v>
@@ -8305,19 +8305,19 @@
         <v>556.066847785297</v>
       </c>
       <c r="O8" s="4">
-        <v>372.857572657607</v>
+        <v>372.756990627751</v>
       </c>
       <c r="P8" s="4">
-        <v>326.848210567257</v>
+        <v>325.504249747239</v>
       </c>
       <c r="Q8" s="4">
-        <v>297.280750627985</v>
+        <v>289.00518110753</v>
       </c>
       <c r="R8" s="4">
-        <v>12.7383996701985</v>
+        <v>13.0206314424023</v>
       </c>
       <c r="S8" s="4">
-        <v>25.9515704789584</v>
+        <v>25.8509884491025</v>
       </c>
       <c r="T8" s="4">
         <v>546.649479593575</v>
@@ -8340,8 +8340,8 @@
   <sheetPr/>
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -8436,25 +8436,25 @@
         <v>756.593890335167</v>
       </c>
       <c r="E2" s="4">
-        <v>503.048048472714</v>
+        <v>503.003644852478</v>
       </c>
       <c r="F2" s="4">
-        <v>110.078040755329</v>
+        <v>109.724991106133</v>
       </c>
       <c r="G2" s="4">
-        <v>173.00486266683</v>
+        <v>172.411548672777</v>
       </c>
       <c r="H2" s="4">
-        <v>266.719277786901</v>
+        <v>264.23650135357</v>
       </c>
       <c r="I2" s="4">
-        <v>49.0327756151108</v>
+        <v>48.4394616210579</v>
       </c>
       <c r="J2" s="4">
-        <v>110.078040755329</v>
+        <v>109.724991106133</v>
       </c>
       <c r="K2" s="4">
-        <v>35.5157776015859</v>
+        <v>35.5251023618353</v>
       </c>
       <c r="L2" s="4">
         <v>738.743058091158</v>
@@ -8466,19 +8466,19 @@
         <v>756.593890335167</v>
       </c>
       <c r="O2" s="4">
-        <v>503.048048472714</v>
+        <v>503.003644852478</v>
       </c>
       <c r="P2" s="4">
-        <v>475.705585339464</v>
+        <v>475.112271345411</v>
       </c>
       <c r="Q2" s="4">
-        <v>266.719277786901</v>
+        <v>264.23650135357</v>
       </c>
       <c r="R2" s="4">
-        <v>54.1846694084083</v>
+        <v>54.3092653471595</v>
       </c>
       <c r="S2" s="4">
-        <v>35.2325177976643</v>
+        <v>35.2418425579138</v>
       </c>
       <c r="T2" s="4">
         <v>738.743058091158</v>
@@ -8497,25 +8497,25 @@
         <v>471.186564461646</v>
       </c>
       <c r="E3" s="4">
-        <v>431.342198154939</v>
+        <v>431.313660043604</v>
       </c>
       <c r="F3" s="4">
-        <v>106.010598467663</v>
+        <v>105.783694216568</v>
       </c>
       <c r="G3" s="4">
-        <v>146.393585622391</v>
+        <v>146.012263993007</v>
       </c>
       <c r="H3" s="4">
-        <v>167.885855938558</v>
+        <v>166.249633960601</v>
       </c>
       <c r="I3" s="4">
-        <v>52.5262164027593</v>
+        <v>52.1448947733746</v>
       </c>
       <c r="J3" s="4">
-        <v>106.010598467663</v>
+        <v>105.783694216568</v>
       </c>
       <c r="K3" s="4">
-        <v>15.9179515104434</v>
+        <v>15.9239445138237</v>
       </c>
       <c r="L3" s="4">
         <v>457.670532740513</v>
@@ -8527,19 +8527,19 @@
         <v>471.186564461646</v>
       </c>
       <c r="O3" s="4">
-        <v>431.342198154939</v>
+        <v>431.313660043604</v>
       </c>
       <c r="P3" s="4">
-        <v>375.588085560978</v>
+        <v>375.206763931594</v>
       </c>
       <c r="Q3" s="4">
-        <v>167.885855938558</v>
+        <v>166.249633960601</v>
       </c>
       <c r="R3" s="4">
-        <v>37.7926919410414</v>
+        <v>37.8727694832122</v>
       </c>
       <c r="S3" s="4">
-        <v>15.7034770006395</v>
+        <v>15.7094700040198</v>
       </c>
       <c r="T3" s="4">
         <v>457.670532740513</v>
@@ -8558,25 +8558,25 @@
         <v>560.775531881157</v>
       </c>
       <c r="E4" s="4">
-        <v>546.598827559144</v>
+        <v>546.553955373282</v>
       </c>
       <c r="F4" s="4">
-        <v>130.014129316797</v>
+        <v>129.657354139609</v>
       </c>
       <c r="G4" s="4">
-        <v>198.83531932335</v>
+        <v>198.235744431155</v>
       </c>
       <c r="H4" s="4">
-        <v>299.175467492826</v>
+        <v>295.25032082899</v>
       </c>
       <c r="I4" s="4">
-        <v>68.0301251113002</v>
+        <v>67.430550219105</v>
       </c>
       <c r="J4" s="4">
-        <v>130.014129316797</v>
+        <v>129.657354139609</v>
       </c>
       <c r="K4" s="4">
-        <v>33.266153335098</v>
+        <v>33.2755764941291</v>
       </c>
       <c r="L4" s="4">
         <v>541.940795497715</v>
@@ -8588,19 +8588,19 @@
         <v>560.775531881157</v>
       </c>
       <c r="O4" s="4">
-        <v>546.598827559144</v>
+        <v>546.553955373282</v>
       </c>
       <c r="P4" s="4">
-        <v>518.220333796839</v>
+        <v>517.620758904643</v>
       </c>
       <c r="Q4" s="4">
-        <v>299.175467492826</v>
+        <v>295.25032082899</v>
       </c>
       <c r="R4" s="4">
-        <v>53.7493273213981</v>
+        <v>53.8752380487591</v>
       </c>
       <c r="S4" s="4">
-        <v>32.9672807860784</v>
+        <v>32.9767039451096</v>
       </c>
       <c r="T4" s="4">
         <v>541.940795497715</v>
@@ -8642,25 +8642,25 @@
         <v>752.131182274165</v>
       </c>
       <c r="E6" s="4">
-        <v>338.381057350735</v>
+        <v>338.281555997334</v>
       </c>
       <c r="F6" s="4">
-        <v>110.572956534559</v>
+        <v>109.7818291957</v>
       </c>
       <c r="G6" s="4">
-        <v>142.756260863359</v>
+        <v>141.426739867396</v>
       </c>
       <c r="H6" s="4">
-        <v>263.645439032307</v>
+        <v>258.399766675242</v>
       </c>
       <c r="I6" s="4">
-        <v>80.5956059069322</v>
+        <v>79.2660849109692</v>
       </c>
       <c r="J6" s="4">
-        <v>110.572956534559</v>
+        <v>109.7818291957</v>
       </c>
       <c r="K6" s="4">
-        <v>8.92258240520211</v>
+        <v>8.82308105180094</v>
       </c>
       <c r="L6" s="4">
         <v>743.20576615216</v>
@@ -8672,19 +8672,19 @@
         <v>752.131182274165</v>
       </c>
       <c r="O6" s="4">
-        <v>338.381057350735</v>
+        <v>338.281555997334</v>
       </c>
       <c r="P6" s="4">
-        <v>294.306837157998</v>
+        <v>292.977316162035</v>
       </c>
       <c r="Q6" s="4">
-        <v>263.645439032307</v>
+        <v>258.399766675242</v>
       </c>
       <c r="R6" s="4">
-        <v>15.3210756441634</v>
+        <v>15.6002750533157</v>
       </c>
       <c r="S6" s="4">
-        <v>9.59701050977726</v>
+        <v>9.49750915637609</v>
       </c>
       <c r="T6" s="4">
         <v>743.20576615216</v>
@@ -8703,25 +8703,25 @@
         <v>467.807556531363</v>
       </c>
       <c r="E7" s="4">
-        <v>306.658047726819</v>
+        <v>306.594035003681</v>
       </c>
       <c r="F7" s="4">
-        <v>106.353450356532</v>
+        <v>105.844490291388</v>
       </c>
       <c r="G7" s="4">
-        <v>123.43681470638</v>
+        <v>122.581487049911</v>
       </c>
       <c r="H7" s="4">
-        <v>168.859993234217</v>
+        <v>165.402256563675</v>
       </c>
       <c r="I7" s="4">
-        <v>76.3709203708685</v>
+        <v>75.5155927143995</v>
       </c>
       <c r="J7" s="4">
-        <v>106.353450356532</v>
+        <v>105.844490291388</v>
       </c>
       <c r="K7" s="4">
-        <v>57.2035048074294</v>
+        <v>57.1394920842917</v>
       </c>
       <c r="L7" s="4">
         <v>461.049540670796</v>
@@ -8733,19 +8733,19 @@
         <v>467.807556531363</v>
       </c>
       <c r="O7" s="4">
-        <v>306.658047726819</v>
+        <v>306.594035003681</v>
       </c>
       <c r="P7" s="4">
-        <v>238.185660505533</v>
+        <v>237.330332849064</v>
       </c>
       <c r="Q7" s="4">
-        <v>168.859993234217</v>
+        <v>165.402256563675</v>
       </c>
       <c r="R7" s="4">
-        <v>8.37777649680253</v>
+        <v>8.55739530466103</v>
       </c>
       <c r="S7" s="4">
-        <v>57.7141584022007</v>
+        <v>57.650145679063</v>
       </c>
       <c r="T7" s="4">
         <v>461.049540670796</v>
@@ -8764,25 +8764,25 @@
         <v>556.066847785297</v>
       </c>
       <c r="E8" s="4">
-        <v>372.857572657607</v>
+        <v>372.756990627751</v>
       </c>
       <c r="F8" s="4">
-        <v>130.551188874729</v>
+        <v>129.751469163419</v>
       </c>
       <c r="G8" s="4">
-        <v>166.944452902047</v>
+        <v>165.600492082029</v>
       </c>
       <c r="H8" s="4">
-        <v>297.280750627985</v>
+        <v>289.00518110753</v>
       </c>
       <c r="I8" s="4">
-        <v>101.357620113376</v>
+        <v>100.013659293358</v>
       </c>
       <c r="J8" s="4">
-        <v>130.551188874729</v>
+        <v>129.751469163419</v>
       </c>
       <c r="K8" s="4">
-        <v>25.2399691717689</v>
+        <v>25.139387141913</v>
       </c>
       <c r="L8" s="4">
         <v>546.649479593575</v>
@@ -8794,19 +8794,19 @@
         <v>556.066847785297</v>
       </c>
       <c r="O8" s="4">
-        <v>372.857572657607</v>
+        <v>372.756990627751</v>
       </c>
       <c r="P8" s="4">
-        <v>326.848210567257</v>
+        <v>325.504249747239</v>
       </c>
       <c r="Q8" s="4">
-        <v>297.280750627985</v>
+        <v>289.00518110753</v>
       </c>
       <c r="R8" s="4">
-        <v>12.7383996701985</v>
+        <v>13.0206314424023</v>
       </c>
       <c r="S8" s="4">
-        <v>25.9515704789584</v>
+        <v>25.8509884491025</v>
       </c>
       <c r="T8" s="4">
         <v>546.649479593575</v>

--- a/analysis/cfg-case-study/result-summary/power-analysis/power_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/power-analysis/power_1500_3000_ft.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12240"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -979,7 +979,7 @@
                   <c:v>0.496821786492374</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>756.593890335167</c:v>
+                  <c:v>846.52079291859</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>503.003644852478</c:v>
@@ -1003,13 +1003,13 @@
                   <c:v>35.5251023618353</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>738.743058091158</c:v>
+                  <c:v>652.995034743484</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.496821786492374</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>756.593890335167</c:v>
+                  <c:v>846.52079291859</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>503.003644852478</c:v>
@@ -1027,7 +1027,7 @@
                   <c:v>35.2418425579138</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>738.743058091158</c:v>
+                  <c:v>652.995034743484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1132,7 +1132,7 @@
                   <c:v>0.376176244008714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>471.186564461646</c:v>
+                  <c:v>525.832553832848</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>431.313660043604</c:v>
@@ -1156,13 +1156,13 @@
                   <c:v>15.9239445138237</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>457.670532740513</c:v>
+                  <c:v>405.620333997344</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.376176244008714</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>471.186564461646</c:v>
+                  <c:v>525.832553832848</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>431.313660043604</c:v>
@@ -1180,7 +1180,7 @@
                   <c:v>15.7094700040198</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>457.670532740513</c:v>
+                  <c:v>405.620333997344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1285,7 +1285,7 @@
                   <c:v>0.524205664488017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>560.775531881157</c:v>
+                  <c:v>624.255490242125</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>546.553955373282</c:v>
@@ -1309,13 +1309,13 @@
                   <c:v>33.2755764941291</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>541.940795497715</c:v>
+                  <c:v>481.542496001831</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.524205664488017</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>560.775531881157</c:v>
+                  <c:v>624.255490242125</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>546.553955373282</c:v>
@@ -1333,7 +1333,7 @@
                   <c:v>32.9767039451096</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>541.940795497715</c:v>
+                  <c:v>481.542496001831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1880,7 +1880,7 @@
                   <c:v>0.496821786492374</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>752.131182274165</c:v>
+                  <c:v>796.58337609268</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>338.281555997334</c:v>
@@ -1904,13 +1904,13 @@
                   <c:v>8.82308105180094</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>743.20576615216</c:v>
+                  <c:v>699.797926541609</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.496821786492374</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>752.131182274165</c:v>
+                  <c:v>796.58337609268</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>338.281555997334</c:v>
@@ -1928,7 +1928,7 @@
                   <c:v>9.49750915637609</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>743.20576615216</c:v>
+                  <c:v>699.797926541609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2033,7 +2033,7 @@
                   <c:v>0.376176244008714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>467.807556531363</c:v>
+                  <c:v>494.812973875632</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>306.594035003681</c:v>
@@ -2057,13 +2057,13 @@
                   <c:v>57.1394920842917</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>461.049540670796</c:v>
+                  <c:v>434.69284388351</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.376176244008714</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>467.807556531363</c:v>
+                  <c:v>494.812973875632</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>306.594035003681</c:v>
@@ -2081,7 +2081,7 @@
                   <c:v>57.650145679063</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>461.049540670796</c:v>
+                  <c:v>434.69284388351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2186,7 +2186,7 @@
                   <c:v>0.524205664488017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>556.066847785297</c:v>
+                  <c:v>587.429806947797</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>372.756990627751</c:v>
@@ -2210,13 +2210,13 @@
                   <c:v>25.139387141913</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>546.649479593575</c:v>
+                  <c:v>516.056665539776</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.524205664488017</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>556.066847785297</c:v>
+                  <c:v>587.429806947797</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>372.756990627751</c:v>
@@ -2234,7 +2234,7 @@
                   <c:v>25.8509884491025</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>546.649479593575</c:v>
+                  <c:v>516.056665539776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2350,7 +2350,7 @@
         <c:axId val="972653384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="800"/>
+          <c:max val="900"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2714,7 +2714,7 @@
                   <c:v>0.496821786492374</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>756.593890335167</c:v>
+                  <c:v>846.52079291859</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>503.003644852478</c:v>
@@ -2738,13 +2738,13 @@
                   <c:v>35.5251023618353</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>738.743058091158</c:v>
+                  <c:v>652.995034743484</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.496821786492374</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>756.593890335167</c:v>
+                  <c:v>846.52079291859</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>503.003644852478</c:v>
@@ -2762,7 +2762,7 @@
                   <c:v>35.2418425579138</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>738.743058091158</c:v>
+                  <c:v>652.995034743484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2867,7 +2867,7 @@
                   <c:v>0.496821786492374</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>752.131182274165</c:v>
+                  <c:v>796.58337609268</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>338.281555997334</c:v>
@@ -2891,13 +2891,13 @@
                   <c:v>8.82308105180094</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>743.20576615216</c:v>
+                  <c:v>699.797926541609</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.496821786492374</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>752.131182274165</c:v>
+                  <c:v>796.58337609268</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>338.281555997334</c:v>
@@ -2915,7 +2915,7 @@
                   <c:v>9.49750915637609</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>743.20576615216</c:v>
+                  <c:v>699.797926541609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3431,7 +3431,7 @@
                   <c:v>0.524205664488017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>560.775531881157</c:v>
+                  <c:v>624.255490242125</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>546.553955373282</c:v>
@@ -3455,13 +3455,13 @@
                   <c:v>33.2755764941291</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>541.940795497715</c:v>
+                  <c:v>481.542496001831</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.524205664488017</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>560.775531881157</c:v>
+                  <c:v>624.255490242125</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>546.553955373282</c:v>
@@ -3479,7 +3479,7 @@
                   <c:v>32.9767039451096</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>541.940795497715</c:v>
+                  <c:v>481.542496001831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3584,7 +3584,7 @@
                   <c:v>0.524205664488017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>556.066847785297</c:v>
+                  <c:v>587.429806947797</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>372.756990627751</c:v>
@@ -3608,13 +3608,13 @@
                   <c:v>25.139387141913</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>546.649479593575</c:v>
+                  <c:v>516.056665539776</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.524205664488017</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>556.066847785297</c:v>
+                  <c:v>587.429806947797</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>372.756990627751</c:v>
@@ -3632,7 +3632,7 @@
                   <c:v>25.8509884491025</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>546.649479593575</c:v>
+                  <c:v>516.056665539776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4148,7 +4148,7 @@
                   <c:v>0.376176244008714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>471.186564461646</c:v>
+                  <c:v>525.832553832848</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>431.313660043604</c:v>
@@ -4172,13 +4172,13 @@
                   <c:v>15.9239445138237</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>457.670532740513</c:v>
+                  <c:v>405.620333997344</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.376176244008714</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>471.186564461646</c:v>
+                  <c:v>525.832553832848</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>431.313660043604</c:v>
@@ -4196,7 +4196,7 @@
                   <c:v>15.7094700040198</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>457.670532740513</c:v>
+                  <c:v>405.620333997344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4301,7 +4301,7 @@
                   <c:v>0.376176244008714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>467.807556531363</c:v>
+                  <c:v>494.812973875632</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>306.594035003681</c:v>
@@ -4325,13 +4325,13 @@
                   <c:v>57.1394920842917</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>461.049540670796</c:v>
+                  <c:v>434.69284388351</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.376176244008714</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>467.807556531363</c:v>
+                  <c:v>494.812973875632</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>306.594035003681</c:v>
@@ -4349,7 +4349,7 @@
                   <c:v>57.650145679063</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>461.049540670796</c:v>
+                  <c:v>434.69284388351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7852,7 +7852,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -7944,7 +7944,7 @@
         <v>0.496821786492374</v>
       </c>
       <c r="D2" s="4">
-        <v>756.593890335167</v>
+        <v>846.52079291859</v>
       </c>
       <c r="E2" s="4">
         <v>503.003644852478</v>
@@ -7968,13 +7968,13 @@
         <v>35.5251023618353</v>
       </c>
       <c r="L2" s="4">
-        <v>738.743058091158</v>
+        <v>652.995034743484</v>
       </c>
       <c r="M2" s="4">
         <v>0.496821786492374</v>
       </c>
       <c r="N2" s="4">
-        <v>756.593890335167</v>
+        <v>846.52079291859</v>
       </c>
       <c r="O2" s="4">
         <v>503.003644852478</v>
@@ -7992,7 +7992,7 @@
         <v>35.2418425579138</v>
       </c>
       <c r="T2" s="4">
-        <v>738.743058091158</v>
+        <v>652.995034743484</v>
       </c>
       <c r="U2" s="5"/>
     </row>
@@ -8005,7 +8005,7 @@
         <v>0.376176244008714</v>
       </c>
       <c r="D3" s="4">
-        <v>471.186564461646</v>
+        <v>525.832553832848</v>
       </c>
       <c r="E3" s="4">
         <v>431.313660043604</v>
@@ -8029,13 +8029,13 @@
         <v>15.9239445138237</v>
       </c>
       <c r="L3" s="4">
-        <v>457.670532740513</v>
+        <v>405.620333997344</v>
       </c>
       <c r="M3" s="4">
         <v>0.376176244008714</v>
       </c>
       <c r="N3" s="4">
-        <v>471.186564461646</v>
+        <v>525.832553832848</v>
       </c>
       <c r="O3" s="4">
         <v>431.313660043604</v>
@@ -8053,7 +8053,7 @@
         <v>15.7094700040198</v>
       </c>
       <c r="T3" s="4">
-        <v>457.670532740513</v>
+        <v>405.620333997344</v>
       </c>
       <c r="U3" s="5"/>
     </row>
@@ -8066,7 +8066,7 @@
         <v>0.524205664488017</v>
       </c>
       <c r="D4" s="4">
-        <v>560.775531881157</v>
+        <v>624.255490242125</v>
       </c>
       <c r="E4" s="4">
         <v>546.553955373282</v>
@@ -8090,13 +8090,13 @@
         <v>33.2755764941291</v>
       </c>
       <c r="L4" s="4">
-        <v>541.940795497715</v>
+        <v>481.542496001831</v>
       </c>
       <c r="M4" s="4">
         <v>0.524205664488017</v>
       </c>
       <c r="N4" s="4">
-        <v>560.775531881157</v>
+        <v>624.255490242125</v>
       </c>
       <c r="O4" s="4">
         <v>546.553955373282</v>
@@ -8114,7 +8114,7 @@
         <v>32.9767039451096</v>
       </c>
       <c r="T4" s="4">
-        <v>541.940795497715</v>
+        <v>481.542496001831</v>
       </c>
       <c r="U4" s="5"/>
     </row>
@@ -8150,7 +8150,7 @@
         <v>0.496821786492374</v>
       </c>
       <c r="D6" s="4">
-        <v>752.131182274165</v>
+        <v>796.58337609268</v>
       </c>
       <c r="E6" s="4">
         <v>338.281555997334</v>
@@ -8174,13 +8174,13 @@
         <v>8.82308105180094</v>
       </c>
       <c r="L6" s="4">
-        <v>743.20576615216</v>
+        <v>699.797926541609</v>
       </c>
       <c r="M6" s="4">
         <v>0.496821786492374</v>
       </c>
       <c r="N6" s="4">
-        <v>752.131182274165</v>
+        <v>796.58337609268</v>
       </c>
       <c r="O6" s="4">
         <v>338.281555997334</v>
@@ -8198,7 +8198,7 @@
         <v>9.49750915637609</v>
       </c>
       <c r="T6" s="4">
-        <v>743.20576615216</v>
+        <v>699.797926541609</v>
       </c>
       <c r="U6" s="5"/>
     </row>
@@ -8211,7 +8211,7 @@
         <v>0.376176244008714</v>
       </c>
       <c r="D7" s="4">
-        <v>467.807556531363</v>
+        <v>494.812973875632</v>
       </c>
       <c r="E7" s="4">
         <v>306.594035003681</v>
@@ -8235,13 +8235,13 @@
         <v>57.1394920842917</v>
       </c>
       <c r="L7" s="4">
-        <v>461.049540670796</v>
+        <v>434.69284388351</v>
       </c>
       <c r="M7" s="4">
         <v>0.376176244008714</v>
       </c>
       <c r="N7" s="4">
-        <v>467.807556531363</v>
+        <v>494.812973875632</v>
       </c>
       <c r="O7" s="4">
         <v>306.594035003681</v>
@@ -8259,7 +8259,7 @@
         <v>57.650145679063</v>
       </c>
       <c r="T7" s="4">
-        <v>461.049540670796</v>
+        <v>434.69284388351</v>
       </c>
       <c r="U7" s="5"/>
     </row>
@@ -8272,7 +8272,7 @@
         <v>0.524205664488017</v>
       </c>
       <c r="D8" s="4">
-        <v>556.066847785297</v>
+        <v>587.429806947797</v>
       </c>
       <c r="E8" s="4">
         <v>372.756990627751</v>
@@ -8296,13 +8296,13 @@
         <v>25.139387141913</v>
       </c>
       <c r="L8" s="4">
-        <v>546.649479593575</v>
+        <v>516.056665539776</v>
       </c>
       <c r="M8" s="4">
         <v>0.524205664488017</v>
       </c>
       <c r="N8" s="4">
-        <v>556.066847785297</v>
+        <v>587.429806947797</v>
       </c>
       <c r="O8" s="4">
         <v>372.756990627751</v>
@@ -8320,7 +8320,7 @@
         <v>25.8509884491025</v>
       </c>
       <c r="T8" s="4">
-        <v>546.649479593575</v>
+        <v>516.056665539776</v>
       </c>
       <c r="U8" s="5"/>
     </row>
@@ -8340,8 +8340,8 @@
   <sheetPr/>
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView zoomScale="62" zoomScaleNormal="62" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -8433,7 +8433,7 @@
         <v>0.496821786492374</v>
       </c>
       <c r="D2" s="4">
-        <v>756.593890335167</v>
+        <v>846.52079291859</v>
       </c>
       <c r="E2" s="4">
         <v>503.003644852478</v>
@@ -8457,13 +8457,13 @@
         <v>35.5251023618353</v>
       </c>
       <c r="L2" s="4">
-        <v>738.743058091158</v>
+        <v>652.995034743484</v>
       </c>
       <c r="M2" s="4">
         <v>0.496821786492374</v>
       </c>
       <c r="N2" s="4">
-        <v>756.593890335167</v>
+        <v>846.52079291859</v>
       </c>
       <c r="O2" s="4">
         <v>503.003644852478</v>
@@ -8481,7 +8481,7 @@
         <v>35.2418425579138</v>
       </c>
       <c r="T2" s="4">
-        <v>738.743058091158</v>
+        <v>652.995034743484</v>
       </c>
       <c r="U2" s="5"/>
     </row>
@@ -8494,7 +8494,7 @@
         <v>0.376176244008714</v>
       </c>
       <c r="D3" s="4">
-        <v>471.186564461646</v>
+        <v>525.832553832848</v>
       </c>
       <c r="E3" s="4">
         <v>431.313660043604</v>
@@ -8518,13 +8518,13 @@
         <v>15.9239445138237</v>
       </c>
       <c r="L3" s="4">
-        <v>457.670532740513</v>
+        <v>405.620333997344</v>
       </c>
       <c r="M3" s="4">
         <v>0.376176244008714</v>
       </c>
       <c r="N3" s="4">
-        <v>471.186564461646</v>
+        <v>525.832553832848</v>
       </c>
       <c r="O3" s="4">
         <v>431.313660043604</v>
@@ -8542,7 +8542,7 @@
         <v>15.7094700040198</v>
       </c>
       <c r="T3" s="4">
-        <v>457.670532740513</v>
+        <v>405.620333997344</v>
       </c>
       <c r="U3" s="5"/>
     </row>
@@ -8555,7 +8555,7 @@
         <v>0.524205664488017</v>
       </c>
       <c r="D4" s="4">
-        <v>560.775531881157</v>
+        <v>624.255490242125</v>
       </c>
       <c r="E4" s="4">
         <v>546.553955373282</v>
@@ -8579,13 +8579,13 @@
         <v>33.2755764941291</v>
       </c>
       <c r="L4" s="4">
-        <v>541.940795497715</v>
+        <v>481.542496001831</v>
       </c>
       <c r="M4" s="4">
         <v>0.524205664488017</v>
       </c>
       <c r="N4" s="4">
-        <v>560.775531881157</v>
+        <v>624.255490242125</v>
       </c>
       <c r="O4" s="4">
         <v>546.553955373282</v>
@@ -8603,7 +8603,7 @@
         <v>32.9767039451096</v>
       </c>
       <c r="T4" s="4">
-        <v>541.940795497715</v>
+        <v>481.542496001831</v>
       </c>
       <c r="U4" s="5"/>
     </row>
@@ -8639,7 +8639,7 @@
         <v>0.496821786492374</v>
       </c>
       <c r="D6" s="4">
-        <v>752.131182274165</v>
+        <v>796.58337609268</v>
       </c>
       <c r="E6" s="4">
         <v>338.281555997334</v>
@@ -8663,13 +8663,13 @@
         <v>8.82308105180094</v>
       </c>
       <c r="L6" s="4">
-        <v>743.20576615216</v>
+        <v>699.797926541609</v>
       </c>
       <c r="M6" s="4">
         <v>0.496821786492374</v>
       </c>
       <c r="N6" s="4">
-        <v>752.131182274165</v>
+        <v>796.58337609268</v>
       </c>
       <c r="O6" s="4">
         <v>338.281555997334</v>
@@ -8687,7 +8687,7 @@
         <v>9.49750915637609</v>
       </c>
       <c r="T6" s="4">
-        <v>743.20576615216</v>
+        <v>699.797926541609</v>
       </c>
       <c r="U6" s="5"/>
     </row>
@@ -8700,7 +8700,7 @@
         <v>0.376176244008714</v>
       </c>
       <c r="D7" s="4">
-        <v>467.807556531363</v>
+        <v>494.812973875632</v>
       </c>
       <c r="E7" s="4">
         <v>306.594035003681</v>
@@ -8724,13 +8724,13 @@
         <v>57.1394920842917</v>
       </c>
       <c r="L7" s="4">
-        <v>461.049540670796</v>
+        <v>434.69284388351</v>
       </c>
       <c r="M7" s="4">
         <v>0.376176244008714</v>
       </c>
       <c r="N7" s="4">
-        <v>467.807556531363</v>
+        <v>494.812973875632</v>
       </c>
       <c r="O7" s="4">
         <v>306.594035003681</v>
@@ -8748,7 +8748,7 @@
         <v>57.650145679063</v>
       </c>
       <c r="T7" s="4">
-        <v>461.049540670796</v>
+        <v>434.69284388351</v>
       </c>
       <c r="U7" s="5"/>
     </row>
@@ -8761,7 +8761,7 @@
         <v>0.524205664488017</v>
       </c>
       <c r="D8" s="4">
-        <v>556.066847785297</v>
+        <v>587.429806947797</v>
       </c>
       <c r="E8" s="4">
         <v>372.756990627751</v>
@@ -8785,13 +8785,13 @@
         <v>25.139387141913</v>
       </c>
       <c r="L8" s="4">
-        <v>546.649479593575</v>
+        <v>516.056665539776</v>
       </c>
       <c r="M8" s="4">
         <v>0.524205664488017</v>
       </c>
       <c r="N8" s="4">
-        <v>556.066847785297</v>
+        <v>587.429806947797</v>
       </c>
       <c r="O8" s="4">
         <v>372.756990627751</v>
@@ -8809,7 +8809,7 @@
         <v>25.8509884491025</v>
       </c>
       <c r="T8" s="4">
-        <v>546.649479593575</v>
+        <v>516.056665539776</v>
       </c>
       <c r="U8" s="5"/>
     </row>
